--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H2">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I2">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J2">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N2">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q2">
-        <v>903.0519224864699</v>
+        <v>170.0973544946583</v>
       </c>
       <c r="R2">
-        <v>8127.467302378231</v>
+        <v>1530.876190451925</v>
       </c>
       <c r="S2">
-        <v>0.4801803507382352</v>
+        <v>0.2669443696742025</v>
       </c>
       <c r="T2">
-        <v>0.4801803507382352</v>
+        <v>0.2669443696742025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H3">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I3">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J3">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P3">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q3">
-        <v>343.966863830164</v>
+        <v>68.51562334854168</v>
       </c>
       <c r="R3">
-        <v>3095.701774471476</v>
+        <v>616.640610136875</v>
       </c>
       <c r="S3">
-        <v>0.1828977107556886</v>
+        <v>0.1075258339081687</v>
       </c>
       <c r="T3">
-        <v>0.1828977107556886</v>
+        <v>0.1075258339081687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.65726433333334</v>
+        <v>6.704275</v>
       </c>
       <c r="H4">
-        <v>100.971793</v>
+        <v>20.112825</v>
       </c>
       <c r="I4">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234531</v>
       </c>
       <c r="J4">
-        <v>0.8115737688004754</v>
+        <v>0.4617710489234532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q4">
-        <v>279.2686826064489</v>
+        <v>55.62823016566666</v>
       </c>
       <c r="R4">
-        <v>2513.418143458041</v>
+        <v>500.654071491</v>
       </c>
       <c r="S4">
-        <v>0.1484957073065516</v>
+        <v>0.08730084534108187</v>
       </c>
       <c r="T4">
-        <v>0.1484957073065515</v>
+        <v>0.08730084534108189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.70865</v>
       </c>
       <c r="I5">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J5">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N5">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q5">
-        <v>15.28149220205</v>
+        <v>14.45032434565</v>
       </c>
       <c r="R5">
-        <v>137.53342981845</v>
+        <v>130.05291911085</v>
       </c>
       <c r="S5">
-        <v>0.008125637189476129</v>
+        <v>0.02267779375815313</v>
       </c>
       <c r="T5">
-        <v>0.008125637189476127</v>
+        <v>0.02267779375815313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.70865</v>
       </c>
       <c r="I6">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J6">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P6">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q6">
         <v>5.820625388750001</v>
@@ -818,10 +818,10 @@
         <v>52.38562849875</v>
       </c>
       <c r="S6">
-        <v>0.003095004695843198</v>
+        <v>0.009134669849073539</v>
       </c>
       <c r="T6">
-        <v>0.003095004695843197</v>
+        <v>0.009134669849073539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.70865</v>
       </c>
       <c r="I7">
-        <v>0.01373349406661455</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="J7">
-        <v>0.01373349406661454</v>
+        <v>0.03922895479591048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q7">
         <v>4.725799358</v>
@@ -880,10 +880,10 @@
         <v>42.532194222</v>
       </c>
       <c r="S7">
-        <v>0.002512852181295219</v>
+        <v>0.007416491188683815</v>
       </c>
       <c r="T7">
-        <v>0.002512852181295218</v>
+        <v>0.007416491188683816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.734363</v>
       </c>
       <c r="I8">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J8">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N8">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q8">
-        <v>194.3835769180488</v>
+        <v>183.8109588248586</v>
       </c>
       <c r="R8">
-        <v>1749.452192262439</v>
+        <v>1654.298629423727</v>
       </c>
       <c r="S8">
-        <v>0.1033596981724601</v>
+        <v>0.2884659828395718</v>
       </c>
       <c r="T8">
-        <v>0.1033596981724601</v>
+        <v>0.2884659828395718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.734363</v>
       </c>
       <c r="I9">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J9">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P9">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q9">
         <v>74.03949614380279</v>
@@ -1004,10 +1004,10 @@
         <v>666.355465294225</v>
       </c>
       <c r="S9">
-        <v>0.03936906654151563</v>
+        <v>0.1161947914347113</v>
       </c>
       <c r="T9">
-        <v>0.0393690665415156</v>
+        <v>0.1161947914347113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.734363</v>
       </c>
       <c r="I10">
-        <v>0.1746927371329101</v>
+        <v>0.4989999962806363</v>
       </c>
       <c r="J10">
-        <v>0.17469273713291</v>
+        <v>0.4989999962806364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q10">
         <v>60.11309437973778</v>
@@ -1066,10 +1066,10 @@
         <v>541.01784941764</v>
       </c>
       <c r="S10">
-        <v>0.0319639724189343</v>
+        <v>0.09433922200635328</v>
       </c>
       <c r="T10">
-        <v>0.0319639724189343</v>
+        <v>0.09433922200635329</v>
       </c>
     </row>
   </sheetData>
